--- a/Programacion web extendido/Planificación/Planificación.xlsx
+++ b/Programacion web extendido/Planificación/Planificación.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Itq\ITQ\Programacion web extendido\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304E8079-7F9D-4E44-AFB5-F4D0AA2FD037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E3C783-95F1-48D6-8BE7-3BD227DA644D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{30CB6D9E-AD97-4AE3-822D-700BE4A56B91}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{30CB6D9E-AD97-4AE3-822D-700BE4A56B91}"/>
   </bookViews>
   <sheets>
     <sheet name="Matutino" sheetId="2" r:id="rId1"/>
     <sheet name="Ejecutivo" sheetId="1" r:id="rId2"/>
+    <sheet name="Videos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>Presentación de tutor, exposición de Programa de Estudios de Asignatura (PEA), sistema de evaluación y normas del curso.</t>
   </si>
@@ -242,13 +243,43 @@
   </si>
   <si>
     <t>EJECUTIVO</t>
+  </si>
+  <si>
+    <t>Sesión</t>
+  </si>
+  <si>
+    <t>https://itqeduec-my.sharepoint.com/:v:/g/personal/david_cevallos_itq_edu_ec/EceY5dSn4a9AoqwetqCWTmcBEyijjFTKIRRF649lavcI0g?referrer=Teams.TEAMS-ELECTRON&amp;referrerScenario=MeetingChicletGetLink.view</t>
+  </si>
+  <si>
+    <t>https://itqeduec-my.sharepoint.com/:v:/g/personal/david_cevallos_itq_edu_ec/EWc68GjvobhFviIZ2Vtj0McBk02CDpuSueafqFnmLeRK6Q?referrer=Teams.TEAMS-ELECTRON&amp;referrerScenario=MeetingChicletGetLink.view</t>
+  </si>
+  <si>
+    <t>https://itqeduec-my.sharepoint.com/:v:/g/personal/david_cevallos_itq_edu_ec/EYtDBrZGJ1ZOqmGB8ZPIOqcBqPWrsbY_eQNiqJMsn95k3A?referrer=Teams.TEAMS-ELECTRON&amp;referrerScenario=MeetingChicletGetLink.view</t>
+  </si>
+  <si>
+    <t>https://itqeduec-my.sharepoint.com/:v:/g/personal/david_cevallos_itq_edu_ec/Eeg2IgDITYdBmEnVaVPSaqQBGlvhatF8A51WeqiG9yfMFQ?referrer=Teams.TEAMS-ELECTRON&amp;referrerScenario=MeetingChicletGetLink.view</t>
+  </si>
+  <si>
+    <t>https://itqeduec-my.sharepoint.com/:v:/g/personal/david_cevallos_itq_edu_ec/EdoYaqHjZDVImHXmpCat8o8BfcNXMVEJA1DKMalvwCeprA?referrer=Teams.TEAMS-ELECTRON&amp;referrerScenario=MeetingChicletGetLink.view</t>
+  </si>
+  <si>
+    <t>https://itqeduec-my.sharepoint.com/:v:/g/personal/david_cevallos_itq_edu_ec/EQ8nCWIrruJDhxgD72UuKZEBsC6pC9RUpTrAH2PmGdkBdw?referrer=Teams.TEAMS-ELECTRON&amp;referrerScenario=MeetingChicletGetLink.view</t>
+  </si>
+  <si>
+    <t>https://itqeduec-my.sharepoint.com/:v:/g/personal/david_cevallos_itq_edu_ec/EXj7T8pHlZdKpkQ7fAmDSBcBM8xNdYGR18eOQalYcS7TaQ?referrer=Teams.TEAMS-ELECTRON&amp;referrerScenario=MeetingChicletGetLink.view</t>
+  </si>
+  <si>
+    <t>https://itqeduec-my.sharepoint.com/:v:/g/personal/david_cevallos_itq_edu_ec/EcmaKl3YqxNMr54jAbegkU0BistNuvv9jegDAnyZo242PQ?referrer=Teams.TEAMS-ELECTRON&amp;referrerScenario=MeetingChicletGetLink.view</t>
+  </si>
+  <si>
+    <t>https://itqeduec-my.sharepoint.com/:v:/g/personal/david_cevallos_itq_edu_ec/Efcl7kMrTN9Akwmc91Kgdq8BszQ8TeRPv3pdHOsusBk5EA?referrer=Teams.TEAMS-ELECTRON&amp;referrerScenario=MeetingChicletGetLink.view</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +328,14 @@
       <color rgb="FF333333"/>
       <name val="Monserrat"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -336,10 +375,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -367,8 +407,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1066,7 +1108,7 @@
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
@@ -1319,4 +1361,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86D2CF9-B1F1-4FD1-994C-0E6A2041F3FE}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{19A1D474-9FB0-42F3-8C1E-E1C6E7528143}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{155C6934-C1EF-466E-90AF-77EB49547F7A}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{642E7C07-E771-446E-9FD4-E3F013176728}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{0DBEA87B-A41A-43EC-89F2-9D3CAB50000B}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{1D53808F-613C-4309-921F-56A5A241672F}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{8A19BAC3-DE31-4947-AE63-2151C3D1FF24}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{FD6BF62C-43EA-4A48-B2A1-D11E0991D3F2}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{76BADE7B-118D-4923-86F7-9879C5456F3C}"/>
+    <hyperlink ref="B5" r:id="rId9" xr:uid="{7CA658E5-CDEE-4A62-A80B-E8C435470A43}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>